--- a/data/x_and_t.xlsx
+++ b/data/x_and_t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD70330C-A4DA-6E45-AD9D-559DA43B4953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9133230-FD7D-EC44-8E28-F384AD272DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{213CFE4C-12F3-154A-9C99-36C94F0A45E6}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
